--- a/hardware/nucleum/rev_a/nucleum_bom.xlsx
+++ b/hardware/nucleum/rev_a/nucleum_bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="169" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="141">
+  <si>
+    <t>Qty</t>
+  </si>
   <si>
     <t>Part</t>
   </si>
@@ -53,7 +56,7 @@
     <t>FRACTUS-ANTENNA-FR05-S1-N-0-102</t>
   </si>
   <si>
-    <t>Fractus Compact Reach XtendTM chip antenna is engineered specifically for Bluetooth,</t>
+    <t>Fractus Compact Reach XtendTM chip antenna</t>
   </si>
   <si>
     <t>FR05-S1-N-0102B</t>
@@ -65,7 +68,7 @@
     <t>BAL-NRF01D3</t>
   </si>
   <si>
-    <t>50 ohm nominal input / conjugate match balun to nRF51422-QFAA,</t>
+    <t>50 ohm nominal match balun to nRF51422-QFAA,</t>
   </si>
   <si>
     <t>497-13637-1-ND</t>
@@ -107,28 +110,22 @@
     <t>0402 Capacitor</t>
   </si>
   <si>
-    <t>C2</t>
+    <t>C2, C3, C4, C5</t>
   </si>
   <si>
     <t>12pF</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
+    <t>445-1236-1-ND</t>
+  </si>
+  <si>
+    <t>C6, C7</t>
   </si>
   <si>
     <t>1nF</t>
   </si>
   <si>
-    <t>C7</t>
+    <t>445-2651-1-ND</t>
   </si>
   <si>
     <t>C8</t>
@@ -137,25 +134,34 @@
     <t>2.2nF</t>
   </si>
   <si>
+    <t>445-5606-1-ND</t>
+  </si>
+  <si>
     <t>C9</t>
   </si>
   <si>
     <t>10nF</t>
   </si>
   <si>
+    <t>445-1260-1-ND</t>
+  </si>
+  <si>
     <t>C10</t>
   </si>
   <si>
     <t>47nF</t>
   </si>
   <si>
-    <t>C11</t>
+    <t>445-1258-1-ND</t>
+  </si>
+  <si>
+    <t>C11, C12</t>
   </si>
   <si>
     <t>0.1uF</t>
   </si>
   <si>
-    <t>C12</t>
+    <t>445-1265-1-ND</t>
   </si>
   <si>
     <t>C13</t>
@@ -164,13 +170,19 @@
     <t>1uF</t>
   </si>
   <si>
+    <t>445-4998-1-ND</t>
+  </si>
+  <si>
     <t>C14</t>
   </si>
   <si>
     <t>4.7uF</t>
   </si>
   <si>
-    <t>C15</t>
+    <t>445-5947-1-ND</t>
+  </si>
+  <si>
+    <t>C15, C16</t>
   </si>
   <si>
     <t>10uF</t>
@@ -185,9 +197,6 @@
     <t>490-7316-1-ND</t>
   </si>
   <si>
-    <t>C16</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -245,16 +254,25 @@
     <t>INDUCTOR0402</t>
   </si>
   <si>
+    <t>0402_IND</t>
+  </si>
+  <si>
+    <t>0402 Inductor</t>
+  </si>
+  <si>
+    <t>445-3061-1-ND</t>
+  </si>
+  <si>
     <t>L2</t>
   </si>
   <si>
     <t>2.2uH</t>
   </si>
   <si>
-    <t>MIPSZ2012D</t>
-  </si>
-  <si>
-    <t>MIPSZ201D</t>
+    <t>INDUCTOR0603</t>
+  </si>
+  <si>
+    <t>0603_IND</t>
   </si>
   <si>
     <t>FDK Multi-layer Power Inductor : MIPSZ2012D series (Very Small Type)</t>
@@ -266,19 +284,13 @@
     <t>10uH</t>
   </si>
   <si>
-    <t>INDUCTOR0603</t>
-  </si>
-  <si>
-    <t>LOGO1</t>
-  </si>
-  <si>
-    <t>UMICH_SOLID_TINY</t>
-  </si>
-  <si>
-    <t>UMICH_SOLID_50MIL</t>
-  </si>
-  <si>
-    <t>R1</t>
+    <t>0603 Inductor</t>
+  </si>
+  <si>
+    <t>445-1025-1-ND</t>
+  </si>
+  <si>
+    <t>R1, R2, R3</t>
   </si>
   <si>
     <t>1k</t>
@@ -293,19 +305,16 @@
     <t>Resistor</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
+    <t>RHM1.0KCECT-ND</t>
+  </si>
+  <si>
+    <t>R4, R5</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t>R5</t>
+    <t>RHM10KCECT-ND</t>
   </si>
   <si>
     <t>R6</t>
@@ -314,9 +323,15 @@
     <t>12k</t>
   </si>
   <si>
+    <t>RHM12.0KCDCT-ND</t>
+  </si>
+  <si>
     <t>S1</t>
   </si>
   <si>
+    <t>RES_SWITCH-0k</t>
+  </si>
+  <si>
     <t>RES_SWITCH</t>
   </si>
   <si>
@@ -338,7 +353,7 @@
     <t>FM25L04B-DGRA-ND</t>
   </si>
   <si>
-    <t> 877-FM25L04B-DG </t>
+    <t>877-FM25L04B-DG</t>
   </si>
   <si>
     <t>U3</t>
@@ -353,6 +368,9 @@
     <t>The RV-3049-C3 is an ultra miniature Real-Time-Clock Module</t>
   </si>
   <si>
+    <t>09X0513</t>
+  </si>
+  <si>
     <t>U4</t>
   </si>
   <si>
@@ -395,13 +413,16 @@
     <t>X1</t>
   </si>
   <si>
-    <t>EPSON-FA-128</t>
-  </si>
-  <si>
-    <t>FA-128</t>
-  </si>
-  <si>
-    <t>MHz RANGE CRYSTAL UNIT</t>
+    <t>16MHz</t>
+  </si>
+  <si>
+    <t>TXC-8Y</t>
+  </si>
+  <si>
+    <t>CRYSTAL 16MHZ 8PF SMD</t>
+  </si>
+  <si>
+    <t>887-2003-1-ND</t>
   </si>
   <si>
     <t>X2</t>
@@ -426,11 +447,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -446,6 +468,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -490,9 +519,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -512,63 +549,68 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.68367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="31.3010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="72.1581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.7142857142857"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.65816326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.6683673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.7857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.0765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7142857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.65816326530612"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
+      <c r="A2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -576,22 +618,25 @@
       <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="J2" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>14</v>
+      <c r="A3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>16</v>
@@ -602,16 +647,19 @@
       <c r="G3" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="H3" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
+      <c r="A4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>21</v>
@@ -625,10 +673,13 @@
       <c r="G4" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="H4" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>25</v>
+      <c r="A5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>26</v>
@@ -642,16 +693,19 @@
       <c r="E5" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="F5" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>30</v>
+      <c r="A6" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>28</v>
@@ -659,16 +713,22 @@
       <c r="E6" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>32</v>
+      <c r="A7" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>28</v>
@@ -676,16 +736,22 @@
       <c r="E7" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="F7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
+      <c r="A8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>28</v>
@@ -693,16 +759,22 @@
       <c r="E8" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="F8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>34</v>
+      <c r="A9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>28</v>
@@ -710,16 +782,22 @@
       <c r="E9" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="F9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>35</v>
+      <c r="A10" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>28</v>
@@ -727,16 +805,22 @@
       <c r="E10" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="F10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>37</v>
+      <c r="A11" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>28</v>
@@ -744,16 +828,22 @@
       <c r="E11" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="F11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>38</v>
+      <c r="A12" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>28</v>
@@ -761,16 +851,22 @@
       <c r="E12" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="F12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>40</v>
+      <c r="A13" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>28</v>
@@ -778,505 +874,419 @@
       <c r="E13" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="F13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>42</v>
+      <c r="A14" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>44</v>
+      <c r="A15" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>29</v>
+        <v>62</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>46</v>
+      <c r="A16" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>47</v>
+      <c r="A17" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>49</v>
+      <c r="A18" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>29</v>
+        <v>74</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>51</v>
+      <c r="A19" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>55</v>
+        <v>80</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>56</v>
+      <c r="A20" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>57</v>
+      <c r="A21" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>61</v>
+        <v>89</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>62</v>
+      <c r="A22" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>64</v>
+        <v>93</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>65</v>
+      <c r="A23" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>90</v>
-      </c>
       <c r="E29" s="0" t="s">
-        <v>91</v>
+        <v>127</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>92</v>
+      <c r="A30" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>91</v>
+        <v>133</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>93</v>
+      <c r="A31" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/nucleum/rev_a/nucleum_bom.xlsx
+++ b/hardware/nucleum/rev_a/nucleum_bom.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="130">
   <si>
     <t>Qty</t>
   </si>
@@ -77,7 +77,7 @@
     <t>511-BAL-NRF01D3</t>
   </si>
   <si>
-    <t>BT1</t>
+    <t>DNP</t>
   </si>
   <si>
     <t>ML-1220/F1AN</t>
@@ -110,13 +110,16 @@
     <t>0402 Capacitor</t>
   </si>
   <si>
+    <t>445-6269-1-ND</t>
+  </si>
+  <si>
     <t>C2, C3, C4, C5</t>
   </si>
   <si>
     <t>12pF</t>
   </si>
   <si>
-    <t>445-1236-1-ND</t>
+    <t>445-6197-1-ND</t>
   </si>
   <si>
     <t>C6, C7</t>
@@ -125,7 +128,7 @@
     <t>1nF</t>
   </si>
   <si>
-    <t>445-2651-1-ND</t>
+    <t>445-1303-1-ND</t>
   </si>
   <si>
     <t>C8</t>
@@ -134,7 +137,7 @@
     <t>2.2nF</t>
   </si>
   <si>
-    <t>445-5606-1-ND</t>
+    <t>445-5419-1-ND</t>
   </si>
   <si>
     <t>C9</t>
@@ -152,7 +155,7 @@
     <t>47nF</t>
   </si>
   <si>
-    <t>445-1258-1-ND</t>
+    <t>445-1264-1-ND</t>
   </si>
   <si>
     <t>C11, C12</t>
@@ -182,9 +185,6 @@
     <t>445-5947-1-ND</t>
   </si>
   <si>
-    <t>C15, C16</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -212,18 +212,6 @@
     <t>67-2125-1-ND</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>TC2030-JLINK-NL</t>
-  </si>
-  <si>
-    <t>TC2030-IDC-NL</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
     <t>SH_MALE_2/1MM</t>
   </si>
   <si>
@@ -233,18 +221,6 @@
     <t>1.0mm pitch/Disconnectable Crimp style connectors</t>
   </si>
   <si>
-    <t>455-1788-2-ND</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>ATUM-HEADER</t>
-  </si>
-  <si>
-    <t>Castellated header for the Atum board.</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -260,10 +236,7 @@
     <t>0402 Inductor</t>
   </si>
   <si>
-    <t>445-3061-1-ND</t>
-  </si>
-  <si>
-    <t>L2</t>
+    <t>587-1521-1-ND</t>
   </si>
   <si>
     <t>2.2uH</t>
@@ -287,7 +260,7 @@
     <t>0603 Inductor</t>
   </si>
   <si>
-    <t>445-1025-1-ND</t>
+    <t>490-4025-1-ND</t>
   </si>
   <si>
     <t>R1, R2, R3</t>
@@ -326,9 +299,6 @@
     <t>RHM12.0KCDCT-ND</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>RES_SWITCH-0k</t>
   </si>
   <si>
@@ -371,9 +341,6 @@
     <t>09X0513</t>
   </si>
   <si>
-    <t>U4</t>
-  </si>
-  <si>
     <t>TPS62740</t>
   </si>
   <si>
@@ -404,7 +371,7 @@
     <t>Multiprotocol Bluetooth® 4.0 low energy/2.4 GHz RF SoC</t>
   </si>
   <si>
-    <t>1490-1032-1-ND</t>
+    <t>1490-1040-1-ND</t>
   </si>
   <si>
     <t>949-NRF51822-QFAB-R7</t>
@@ -519,9 +486,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -549,18 +524,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.68367346938776"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.99489795918367"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7959183673469"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8316326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.3010204081633"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.6683673469388"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.7857142857143"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.0765306122449"/>
@@ -570,40 +545,40 @@
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -626,7 +601,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -652,7 +627,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -678,7 +653,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -696,16 +671,19 @@
       <c r="F5" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="G5" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>28</v>
@@ -717,18 +695,18 @@
         <v>30</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>28</v>
@@ -740,18 +718,18 @@
         <v>30</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>28</v>
@@ -762,19 +740,19 @@
       <c r="F8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>39</v>
+      <c r="G8" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>28</v>
@@ -786,18 +764,18 @@
         <v>30</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>28</v>
@@ -808,19 +786,19 @@
       <c r="F10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>45</v>
+      <c r="G10" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>28</v>
@@ -832,18 +810,18 @@
         <v>30</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>28</v>
@@ -855,18 +833,18 @@
         <v>30</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>28</v>
@@ -877,16 +855,16 @@
       <c r="F13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>54</v>
+      <c r="G13" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>56</v>
@@ -905,7 +883,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -928,24 +906,27 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -955,64 +936,64 @@
         <v>69</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="0" t="s">
         <v>72</v>
       </c>
+      <c r="G17" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F18" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="E19" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>79</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>1</v>
+      <c r="A20" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>82</v>
@@ -1029,16 +1010,19 @@
       <c r="F20" s="0" t="s">
         <v>86</v>
       </c>
+      <c r="G20" s="0" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>1</v>
+      <c r="A21" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>84</v>
@@ -1047,15 +1031,15 @@
         <v>85</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>3</v>
+      <c r="A22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>91</v>
@@ -1064,65 +1048,68 @@
         <v>92</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="D23" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="E23" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" s="0" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="0" t="s">
+      <c r="D24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="0" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="B25" s="0" t="s">
         <v>103</v>
       </c>
@@ -1130,7 +1117,7 @@
         <v>104</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>105</v>
@@ -1138,13 +1125,16 @@
       <c r="F25" s="0" t="s">
         <v>106</v>
       </c>
+      <c r="I25" s="0" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>108</v>
@@ -1164,61 +1154,61 @@
       <c r="H26" s="0" t="s">
         <v>112</v>
       </c>
+      <c r="I26" s="0" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="0" t="s">
         <v>117</v>
       </c>
+      <c r="G27" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I28" s="0" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -1228,7 +1218,7 @@
         <v>126</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>127</v>
@@ -1238,61 +1228,12 @@
       </c>
       <c r="G29" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/hardware/nucleum/rev_a/nucleum_bom.xlsx
+++ b/hardware/nucleum/rev_a/nucleum_bom.xlsx
@@ -5,406 +5,411 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="130">
   <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Part</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>DIGIKEY</t>
-  </si>
-  <si>
-    <t>MOUSER</t>
-  </si>
-  <si>
-    <t>NEWARK</t>
-  </si>
-  <si>
-    <t>RICHARDSON_RFPD</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>FRACTUS-2.4GHZ-FR05-S1-N-0-102</t>
-  </si>
-  <si>
-    <t>FRACTUS-ANTENNA-FR05-S1-N-0-102</t>
-  </si>
-  <si>
-    <t>Fractus Compact Reach XtendTM chip antenna</t>
-  </si>
-  <si>
-    <t>FR05-S1-N-0102B</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>BAL-NRF01D3</t>
-  </si>
-  <si>
-    <t>50 ohm nominal match balun to nRF51422-QFAA,</t>
-  </si>
-  <si>
-    <t>497-13637-1-ND</t>
-  </si>
-  <si>
-    <t>511-BAL-NRF01D3</t>
-  </si>
-  <si>
-    <t>DNP</t>
-  </si>
-  <si>
-    <t>ML-1220/F1AN</t>
-  </si>
-  <si>
-    <t>ML-1220/F1BN</t>
-  </si>
-  <si>
-    <t>BATTERY LITH 3V RECHARGE PC PINS</t>
-  </si>
-  <si>
-    <t>P663-nd</t>
-  </si>
-  <si>
-    <t>658-ML-1220/F1BN</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>0.8pF</t>
-  </si>
-  <si>
-    <t>CAPACITOR</t>
-  </si>
-  <si>
-    <t>0402_CAP</t>
-  </si>
-  <si>
-    <t>0402 Capacitor</t>
-  </si>
-  <si>
-    <t>445-6269-1-ND</t>
-  </si>
-  <si>
-    <t>C2, C3, C4, C5</t>
-  </si>
-  <si>
-    <t>12pF</t>
-  </si>
-  <si>
-    <t>445-6197-1-ND</t>
-  </si>
-  <si>
-    <t>C6, C7</t>
-  </si>
-  <si>
-    <t>1nF</t>
-  </si>
-  <si>
-    <t>445-1303-1-ND</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>2.2nF</t>
-  </si>
-  <si>
-    <t>445-5419-1-ND</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>445-1260-1-ND</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>47nF</t>
-  </si>
-  <si>
-    <t>445-1264-1-ND</t>
-  </si>
-  <si>
-    <t>C11, C12</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>445-1265-1-ND</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>445-4998-1-ND</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>445-5947-1-ND</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>CAPACITOR0603_CAP</t>
-  </si>
-  <si>
-    <t>0603_CAP</t>
-  </si>
-  <si>
-    <t>490-7316-1-ND</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>SML-LX0404SIUPGUSB</t>
-  </si>
-  <si>
-    <t>1MM_SQ_4PAD</t>
-  </si>
-  <si>
-    <t>1mm^2 RGB LED</t>
-  </si>
-  <si>
-    <t>67-2125-1-ND</t>
-  </si>
-  <si>
-    <t>SH_MALE_2/1MM</t>
-  </si>
-  <si>
-    <t>SH-1X2/1MM</t>
-  </si>
-  <si>
-    <t>1.0mm pitch/Disconnectable Crimp style connectors</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>15nH</t>
-  </si>
-  <si>
-    <t>INDUCTOR0402</t>
-  </si>
-  <si>
-    <t>0402_IND</t>
-  </si>
-  <si>
-    <t>0402 Inductor</t>
-  </si>
-  <si>
-    <t>587-1521-1-ND</t>
-  </si>
-  <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
-    <t>INDUCTOR0603</t>
-  </si>
-  <si>
-    <t>0603_IND</t>
-  </si>
-  <si>
-    <t>FDK Multi-layer Power Inductor : MIPSZ2012D series (Very Small Type)</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>10uH</t>
-  </si>
-  <si>
-    <t>0603 Inductor</t>
-  </si>
-  <si>
-    <t>490-4025-1-ND</t>
-  </si>
-  <si>
-    <t>R1, R2, R3</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>RESISTOR0402_RES</t>
-  </si>
-  <si>
-    <t>0402_RES</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>RHM1.0KCECT-ND</t>
-  </si>
-  <si>
-    <t>R4, R5</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>RHM10KCECT-ND</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>12k</t>
-  </si>
-  <si>
-    <t>RHM12.0KCDCT-ND</t>
-  </si>
-  <si>
-    <t>RES_SWITCH-0k</t>
-  </si>
-  <si>
-    <t>RES_SWITCH</t>
-  </si>
-  <si>
-    <t>0402 Static Resistor Selector</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>FM25LBTDFN-8</t>
-  </si>
-  <si>
-    <t>TDFN-8</t>
-  </si>
-  <si>
-    <t>IC FRAM 4KBIT 10MHZ 8SOIC</t>
-  </si>
-  <si>
-    <t>FM25L04B-DGRA-ND</t>
-  </si>
-  <si>
-    <t>877-FM25L04B-DG</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>RV-3049-C3</t>
-  </si>
-  <si>
-    <t>MICRO-CRYSTAL-C3</t>
-  </si>
-  <si>
-    <t>The RV-3049-C3 is an ultra miniature Real-Time-Clock Module</t>
-  </si>
-  <si>
-    <t>09X0513</t>
-  </si>
-  <si>
-    <t>TPS62740</t>
-  </si>
-  <si>
-    <t>R-PWSON-12</t>
-  </si>
-  <si>
-    <t>360nA Step Down Converter for Low Power Applications</t>
-  </si>
-  <si>
-    <t>296-37134-1-ND</t>
-  </si>
-  <si>
-    <t>595-TPS62740DSST</t>
-  </si>
-  <si>
-    <t>27X9745</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>NRF51822QF</t>
-  </si>
-  <si>
-    <t>QFN-48-6MM</t>
-  </si>
-  <si>
-    <t>Multiprotocol Bluetooth® 4.0 low energy/2.4 GHz RF SoC</t>
-  </si>
-  <si>
-    <t>1490-1040-1-ND</t>
-  </si>
-  <si>
-    <t>949-NRF51822-QFAB-R7</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>16MHz</t>
-  </si>
-  <si>
-    <t>TXC-8Y</t>
-  </si>
-  <si>
-    <t>CRYSTAL 16MHZ 8PF SMD</t>
-  </si>
-  <si>
-    <t>887-2003-1-ND</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>ABS05-32.768KHZ-T</t>
-  </si>
-  <si>
-    <t>ABS05</t>
-  </si>
-  <si>
-    <t>32.768kHz Crystal</t>
-  </si>
-  <si>
-    <t>535-11899-1-ND</t>
+    <t xml:space="preserve">Qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIGIKEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOUSER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEWARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICHARDSON_RFPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRACTUS-2.4GHZ-FR05-S1-N-0-102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRACTUS-ANTENNA-FR05-S1-N-0-102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fractus Compact Reach XtendTM chip antenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR05-S1-N-0102B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAL-NRF01D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 ohm nominal match balun to nRF51422-QFAA,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">497-13637-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">511-BAL-NRF01D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML-1220/F1AN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML-1220/F1BN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATTERY LITH 3V RECHARGE PC PINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P663-nd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">658-ML-1220/F1BN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACITOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0402_CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0402 Capacitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-6269-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2, C3, C4, C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-6197-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6, C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-1303-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-5419-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445-1260-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445-1264-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11, C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445-1265-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445-4998-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">445-5947-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPACITOR0603_CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603_CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-7316-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SML-LX0404SIUPGUSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1MM_SQ_4PAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1mm^2 RGB LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67-2125-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH_MALE_2/1MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH-1X2/1MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0mm pitch/Disconnectable Crimp style connectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15nH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDUCTOR0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0402_IND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0402 Inductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">587-1521-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2uH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDUCTOR0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603_IND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDK Multi-layer Power Inductor : MIPSZ2012D series (Very Small Type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10uH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603 Inductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490-4025-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R2, R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESISTOR0402_RES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0402_RES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHM1.0KCECT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4, R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHM10KCECT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHM12.0KCDCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES_SWITCH-0k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES_SWITCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0402 Static Resistor Selector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM25LBTDFN-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDFN-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC FRAM 4KBIT 10MHZ 8SOIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FM25L04B-DGRA-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">877-FM25L04B-DG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RV-3049-C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICRO-CRYSTAL-C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The RV-3049-C3 is an ultra miniature Real-Time-Clock Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09X0513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPS62740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-PWSON-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360nA Step Down Converter for Low Power Applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296-37134-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595-TPS62740DSST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27X9745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRF51822QF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFN-48-6MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiprotocol Bluetooth® 4.0 low energy/2.4 GHz RF SoC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1490-1040-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">949-NRF51822-QFAB-R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXC-8Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRYSTAL 16MHZ 8PF SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">887-2003-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS05-32.768KHZ-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.768kHz Crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">535-11899-1-ND</t>
   </si>
 </sst>
 </file>
@@ -412,7 +417,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -527,22 +532,22 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.3010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.6683673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.7857142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.0765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.7142857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.65816326530612"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="true" max="6" min="6" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
